--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N2">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q2">
-        <v>2.264401845552777</v>
+        <v>6.35414983973889</v>
       </c>
       <c r="R2">
-        <v>20.379616609975</v>
+        <v>57.18734855765</v>
       </c>
       <c r="S2">
-        <v>0.1310835502627296</v>
+        <v>0.295448774468984</v>
       </c>
       <c r="T2">
-        <v>0.1310835502627296</v>
+        <v>0.295448774468984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q3">
         <v>5.830639348177779</v>
@@ -632,10 +632,10 @@
         <v>52.47575413360001</v>
       </c>
       <c r="S3">
-        <v>0.3375288302126129</v>
+        <v>0.2711071179052569</v>
       </c>
       <c r="T3">
-        <v>0.3375288302126129</v>
+        <v>0.2711071179052569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>6.029036</v>
       </c>
       <c r="O4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q4">
         <v>8.597690040477776</v>
@@ -694,10 +694,10 @@
         <v>77.37921036429999</v>
       </c>
       <c r="S4">
-        <v>0.4977101289586767</v>
+        <v>0.3997666170597783</v>
       </c>
       <c r="T4">
-        <v>0.4977101289586767</v>
+        <v>0.3997666170597783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N5">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q5">
-        <v>0.07891710174055555</v>
+        <v>0.2214496911677778</v>
       </c>
       <c r="R5">
-        <v>0.710253915665</v>
+        <v>1.99304722051</v>
       </c>
       <c r="S5">
-        <v>0.004568417877292332</v>
+        <v>0.01029674173763953</v>
       </c>
       <c r="T5">
-        <v>0.004568417877292331</v>
+        <v>0.01029674173763953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q6">
         <v>0.2032047269155556</v>
@@ -818,10 +818,10 @@
         <v>1.82884254224</v>
       </c>
       <c r="S6">
-        <v>0.01176328180732294</v>
+        <v>0.00944840600988606</v>
       </c>
       <c r="T6">
-        <v>0.01176328180732294</v>
+        <v>0.009448406009886058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>6.029036</v>
       </c>
       <c r="O7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q7">
         <v>0.2996397397355555</v>
@@ -880,10 +880,10 @@
         <v>2.69675765762</v>
       </c>
       <c r="S7">
-        <v>0.01734579088136565</v>
+        <v>0.01393234281845533</v>
       </c>
       <c r="T7">
-        <v>0.01734579088136564</v>
+        <v>0.01393234281845533</v>
       </c>
     </row>
   </sheetData>
